--- a/biology/Zoologie/Franconienne/Franconienne.xlsx
+++ b/biology/Zoologie/Franconienne/Franconienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malacosoma franconicum
 La Franconienne (Malacosoma franconicum) est une espèce d'insectes lépidoptères (papillons) appartenant à la famille des Lasiocampidae et au genre Malacosoma. C'est l’espèce type pour le genre.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Envergure du mâle : de 11 à 13 mm.
 			Chenille
@@ -545,11 +559,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Période de vol : de juillet à août.
-Alimentation
-Plantes-hôtes : diverses plantes basses dont Artemisia, Achillea, Plantago, etc.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Période de vol : de juillet à août.</t>
         </is>
       </c>
     </row>
@@ -574,10 +588,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes : diverses plantes basses dont Artemisia, Achillea, Plantago, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Franconienne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franconienne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Réparation et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Habitat
 friches et landes.
@@ -586,36 +638,72 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Franconienne</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Franconienne</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Malacosoma franconicum a été décrite par les entomologistes allemands Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller en 1775, sous le nom initial de Bombyx franconica[1].
-La localité type est Francfort.
-Synonymie
-Bombyx franconica Denis &amp; Schiffermüller, 1775
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'espèce Malacosoma franconicum a été décrite par les entomologistes allemands Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller en 1775, sous le nom initial de Bombyx franconica.
+La localité type est Francfort.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Franconienne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franconienne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bombyx franconica Denis &amp; Schiffermüller, 1775
 Malacosoma franconica
 Malacosoma dorycnii (Millière, 1864) 
 Malacosoma panormitana Turati, 1909
